--- a/data/pca/factorExposure/factorExposure_2010-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-23.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0144339032827717</v>
+        <v>-0.01655290007182962</v>
       </c>
       <c r="C2">
-        <v>-5.939308806382885e-05</v>
+        <v>-0.0007863126496607005</v>
       </c>
       <c r="D2">
-        <v>-0.01002834294542868</v>
+        <v>-0.007231932353676539</v>
       </c>
       <c r="E2">
-        <v>0.02302787898370742</v>
+        <v>-0.00264926507781054</v>
       </c>
       <c r="F2">
-        <v>-0.05160226851668224</v>
+        <v>0.01137522242106142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1232566973138027</v>
+        <v>-0.09530960392761387</v>
       </c>
       <c r="C4">
-        <v>-0.09000663933032371</v>
+        <v>-0.0182576636512443</v>
       </c>
       <c r="D4">
-        <v>0.002234411896061684</v>
+        <v>-0.07726269843857703</v>
       </c>
       <c r="E4">
-        <v>0.1566276290341918</v>
+        <v>0.02836535258661986</v>
       </c>
       <c r="F4">
-        <v>0.01063757404474555</v>
+        <v>-0.04174433581762719</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1264803020140528</v>
+        <v>-0.1502010439015568</v>
       </c>
       <c r="C6">
-        <v>-0.05585639843459143</v>
+        <v>-0.02416989116518938</v>
       </c>
       <c r="D6">
-        <v>0.006682709954910761</v>
+        <v>0.01749472570220726</v>
       </c>
       <c r="E6">
-        <v>0.03558794090695794</v>
+        <v>0.0107508403004434</v>
       </c>
       <c r="F6">
-        <v>0.05216287769310436</v>
+        <v>-0.0385522249864475</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07061437456797755</v>
+        <v>-0.06343056640815355</v>
       </c>
       <c r="C7">
-        <v>-0.08853994644507401</v>
+        <v>-0.0009563694505392627</v>
       </c>
       <c r="D7">
-        <v>-0.006166766000754182</v>
+        <v>-0.04968625572736894</v>
       </c>
       <c r="E7">
-        <v>0.0214948577218539</v>
+        <v>0.01523018182902774</v>
       </c>
       <c r="F7">
-        <v>-0.00498668140641843</v>
+        <v>-0.0576542091013429</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04041719356834023</v>
+        <v>-0.06014201509689628</v>
       </c>
       <c r="C8">
-        <v>-0.007768069050449941</v>
+        <v>0.0127907785486937</v>
       </c>
       <c r="D8">
-        <v>-0.005941978807707285</v>
+        <v>-0.02811630302132186</v>
       </c>
       <c r="E8">
-        <v>0.1131265472549224</v>
+        <v>0.01004926782997466</v>
       </c>
       <c r="F8">
-        <v>-0.03168382074781273</v>
+        <v>0.02082364215665552</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09198018266786794</v>
+        <v>-0.07370922065588818</v>
       </c>
       <c r="C9">
-        <v>-0.06390683307097154</v>
+        <v>-0.01516666863769855</v>
       </c>
       <c r="D9">
-        <v>0.01454506919930525</v>
+        <v>-0.07411004067744638</v>
       </c>
       <c r="E9">
-        <v>0.1349515443908007</v>
+        <v>0.02068165833600938</v>
       </c>
       <c r="F9">
-        <v>0.02518383317889209</v>
+        <v>-0.06270575846570031</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1252159472379495</v>
+        <v>-0.09119397988176681</v>
       </c>
       <c r="C10">
-        <v>0.1869004016077591</v>
+        <v>-0.01262465799013324</v>
       </c>
       <c r="D10">
-        <v>-0.01897389525541304</v>
+        <v>0.1731006036405489</v>
       </c>
       <c r="E10">
-        <v>-0.05779011711149482</v>
+        <v>-0.03370147380988763</v>
       </c>
       <c r="F10">
-        <v>0.03262467983282299</v>
+        <v>0.05117255077273456</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06732919285065288</v>
+        <v>-0.08877860846211039</v>
       </c>
       <c r="C11">
-        <v>-0.05645037381244509</v>
+        <v>-0.01429930796124692</v>
       </c>
       <c r="D11">
-        <v>0.03871266884728705</v>
+        <v>-0.1039549222000124</v>
       </c>
       <c r="E11">
-        <v>0.1075627992221367</v>
+        <v>0.04065489415687007</v>
       </c>
       <c r="F11">
-        <v>0.00678995397795533</v>
+        <v>-0.02915848863891776</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07393124154082949</v>
+        <v>-0.09454851565573272</v>
       </c>
       <c r="C12">
-        <v>-0.0659140979290653</v>
+        <v>-0.01201233790896006</v>
       </c>
       <c r="D12">
-        <v>0.04703308054062495</v>
+        <v>-0.1076444045555305</v>
       </c>
       <c r="E12">
-        <v>0.125606047973604</v>
+        <v>0.03804956518419358</v>
       </c>
       <c r="F12">
-        <v>0.01822400629335713</v>
+        <v>-0.03250714004355297</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04683611357490111</v>
+        <v>-0.04415703927956129</v>
       </c>
       <c r="C13">
-        <v>-0.04388004692207762</v>
+        <v>-0.004613037873751096</v>
       </c>
       <c r="D13">
-        <v>-0.02013494244815992</v>
+        <v>-0.03473958514705983</v>
       </c>
       <c r="E13">
-        <v>0.06031553624768339</v>
+        <v>-0.01419555511786044</v>
       </c>
       <c r="F13">
-        <v>0.0005142759531771108</v>
+        <v>-0.02227257682964968</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04774622441034652</v>
+        <v>-0.02239537592186506</v>
       </c>
       <c r="C14">
-        <v>-0.03490909611465708</v>
+        <v>-0.01517318284121358</v>
       </c>
       <c r="D14">
-        <v>0.01286244356635334</v>
+        <v>-0.02720161925613341</v>
       </c>
       <c r="E14">
-        <v>0.0587912840908221</v>
+        <v>0.01569424822217616</v>
       </c>
       <c r="F14">
-        <v>0.0215557692539349</v>
+        <v>-0.02670341431295544</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02847953494972355</v>
+        <v>-0.03291718276077072</v>
       </c>
       <c r="C15">
-        <v>-0.01656347275697647</v>
+        <v>-0.006319985740631142</v>
       </c>
       <c r="D15">
-        <v>-0.06609275496235001</v>
+        <v>-0.036588699594588</v>
       </c>
       <c r="E15">
-        <v>0.0127922202866411</v>
+        <v>0.006576655995160008</v>
       </c>
       <c r="F15">
-        <v>-0.01816142518377488</v>
+        <v>-0.03531123774604972</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07999419782662937</v>
+        <v>-0.07653263619750986</v>
       </c>
       <c r="C16">
-        <v>-0.07236740138927071</v>
+        <v>-0.006112445769906875</v>
       </c>
       <c r="D16">
-        <v>0.03499200208293918</v>
+        <v>-0.1068078243981748</v>
       </c>
       <c r="E16">
-        <v>0.1048334288848105</v>
+        <v>0.05646619135585922</v>
       </c>
       <c r="F16">
-        <v>0.02368971449112479</v>
+        <v>-0.03711441681562453</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01590011331702915</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004207332213274155</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02497162892785918</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0108290758078501</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03169056590183949</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04357273420584036</v>
+        <v>-0.06194920686120151</v>
       </c>
       <c r="C20">
-        <v>-0.02328206583600739</v>
+        <v>-0.003589821806470438</v>
       </c>
       <c r="D20">
-        <v>-0.0300857513572408</v>
+        <v>-0.06336380273567721</v>
       </c>
       <c r="E20">
-        <v>0.06021247371099134</v>
+        <v>0.05006001888158184</v>
       </c>
       <c r="F20">
-        <v>0.02000132853970801</v>
+        <v>-0.03439456234969377</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03254526993989849</v>
+        <v>-0.03795819771559551</v>
       </c>
       <c r="C21">
-        <v>-0.02341806733920138</v>
+        <v>-0.008249904226607083</v>
       </c>
       <c r="D21">
-        <v>0.01153493719629432</v>
+        <v>-0.03470702505120161</v>
       </c>
       <c r="E21">
-        <v>0.05048672069178615</v>
+        <v>-0.01355443649349415</v>
       </c>
       <c r="F21">
-        <v>0.0130009671303674</v>
+        <v>0.01488490960078719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04930310707833573</v>
+        <v>-0.04260559274279918</v>
       </c>
       <c r="C22">
-        <v>-0.01820174816785679</v>
+        <v>-0.0007200338787621166</v>
       </c>
       <c r="D22">
-        <v>-0.6539681908657992</v>
+        <v>0.001634513909670246</v>
       </c>
       <c r="E22">
-        <v>-0.0382270968887268</v>
+        <v>0.03618256415499664</v>
       </c>
       <c r="F22">
-        <v>0.08547985225433494</v>
+        <v>0.02681668943960322</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04987288787955488</v>
+        <v>-0.0426430280757759</v>
       </c>
       <c r="C23">
-        <v>-0.01933312571740396</v>
+        <v>-0.0007429363477114806</v>
       </c>
       <c r="D23">
-        <v>-0.6561753496781474</v>
+        <v>0.001455126260314855</v>
       </c>
       <c r="E23">
-        <v>-0.03265736867587397</v>
+        <v>0.03654615210869484</v>
       </c>
       <c r="F23">
-        <v>0.08484854962185402</v>
+        <v>0.02623671182480359</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07729378483912934</v>
+        <v>-0.08222076431184085</v>
       </c>
       <c r="C24">
-        <v>-0.06906541753827447</v>
+        <v>-0.00597806677947735</v>
       </c>
       <c r="D24">
-        <v>0.02713082189122164</v>
+        <v>-0.1090657315485699</v>
       </c>
       <c r="E24">
-        <v>0.1090042280808513</v>
+        <v>0.04397701431713303</v>
       </c>
       <c r="F24">
-        <v>0.02068660315076157</v>
+        <v>-0.02928058809681666</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07677919511202233</v>
+        <v>-0.08689032933298782</v>
       </c>
       <c r="C25">
-        <v>-0.05214878228837957</v>
+        <v>-0.008300595684244325</v>
       </c>
       <c r="D25">
-        <v>0.04678854443802042</v>
+        <v>-0.09409034631385103</v>
       </c>
       <c r="E25">
-        <v>0.1138158704981103</v>
+        <v>0.0257179256954524</v>
       </c>
       <c r="F25">
-        <v>0.01844229768142485</v>
+        <v>-0.03926089908057593</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03901655886768409</v>
+        <v>-0.05659559034786559</v>
       </c>
       <c r="C26">
-        <v>-0.0237147386043759</v>
+        <v>-0.01563151659052737</v>
       </c>
       <c r="D26">
-        <v>-0.0128137666884276</v>
+        <v>-0.02756803976924736</v>
       </c>
       <c r="E26">
-        <v>0.07144700144995056</v>
+        <v>0.02452703255901956</v>
       </c>
       <c r="F26">
-        <v>0.07915788033545347</v>
+        <v>-0.00467493591544396</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1499152395398151</v>
+        <v>-0.1367676911223971</v>
       </c>
       <c r="C28">
-        <v>0.2750716069875098</v>
+        <v>-0.009960258967028058</v>
       </c>
       <c r="D28">
-        <v>0.009380043621868284</v>
+        <v>0.2782709506018006</v>
       </c>
       <c r="E28">
-        <v>0.01786395990011826</v>
+        <v>-0.06560889893218695</v>
       </c>
       <c r="F28">
-        <v>9.572636161285907e-05</v>
+        <v>-0.05015828867947031</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04277156289551844</v>
+        <v>-0.02766758213471949</v>
       </c>
       <c r="C29">
-        <v>-0.0297088547832013</v>
+        <v>-0.009438445724214067</v>
       </c>
       <c r="D29">
-        <v>0.01428441142790164</v>
+        <v>-0.02540475287781844</v>
       </c>
       <c r="E29">
-        <v>0.0540128563526422</v>
+        <v>0.007934624043438537</v>
       </c>
       <c r="F29">
-        <v>0.02219227132687901</v>
+        <v>0.00619623133137035</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08730909023589685</v>
+        <v>-0.06697388281255753</v>
       </c>
       <c r="C30">
-        <v>-0.05942547863876949</v>
+        <v>-0.008747202997113833</v>
       </c>
       <c r="D30">
-        <v>0.01613874576834494</v>
+        <v>-0.06994414345433739</v>
       </c>
       <c r="E30">
-        <v>0.2192724314427921</v>
+        <v>0.02083940366539278</v>
       </c>
       <c r="F30">
-        <v>0.1753406907338867</v>
+        <v>-0.1257316599278583</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02819869942592751</v>
+        <v>-0.04864748713495558</v>
       </c>
       <c r="C31">
-        <v>-0.05454948873988935</v>
+        <v>-0.01528889340667782</v>
       </c>
       <c r="D31">
-        <v>-0.003694923986499587</v>
+        <v>-0.02919217300843771</v>
       </c>
       <c r="E31">
-        <v>0.04299518828409921</v>
+        <v>0.0264781274501377</v>
       </c>
       <c r="F31">
-        <v>-0.0005540768902697181</v>
+        <v>0.002306639548185805</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05871503201255326</v>
+        <v>-0.04796351003568581</v>
       </c>
       <c r="C32">
-        <v>-0.0007586530722934881</v>
+        <v>-0.001202040380371411</v>
       </c>
       <c r="D32">
-        <v>0.03461982231935792</v>
+        <v>-0.02183639769907577</v>
       </c>
       <c r="E32">
-        <v>0.09633665805112521</v>
+        <v>0.0241442780352209</v>
       </c>
       <c r="F32">
-        <v>-0.02474319213151747</v>
+        <v>-0.007391398704766256</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0948234386673166</v>
+        <v>-0.09257547813765829</v>
       </c>
       <c r="C33">
-        <v>-0.06487364764846607</v>
+        <v>-0.01150519467992096</v>
       </c>
       <c r="D33">
-        <v>0.02270173220473068</v>
+        <v>-0.0843921017496226</v>
       </c>
       <c r="E33">
-        <v>0.06921501634402741</v>
+        <v>0.04374161271763161</v>
       </c>
       <c r="F33">
-        <v>0.08331121082315446</v>
+        <v>-0.04426662479847809</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06911481689773531</v>
+        <v>-0.0694381152654357</v>
       </c>
       <c r="C34">
-        <v>-0.05383863333282078</v>
+        <v>-0.01367178575918707</v>
       </c>
       <c r="D34">
-        <v>0.04591165048090767</v>
+        <v>-0.08878284625363674</v>
       </c>
       <c r="E34">
-        <v>0.09084736608125235</v>
+        <v>0.02618299724057137</v>
       </c>
       <c r="F34">
-        <v>0.01982775051592168</v>
+        <v>-0.05480341564298114</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02398466581139387</v>
+        <v>-0.02442210880814195</v>
       </c>
       <c r="C35">
-        <v>-0.02532336440162777</v>
+        <v>-0.002470845937959109</v>
       </c>
       <c r="D35">
-        <v>0.009788287491008784</v>
+        <v>-0.009550237259327337</v>
       </c>
       <c r="E35">
-        <v>0.01556312671218619</v>
+        <v>0.01260952319918932</v>
       </c>
       <c r="F35">
-        <v>0.03176067835096102</v>
+        <v>-0.01381247324151944</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03027935795169562</v>
+        <v>-0.02665668841909754</v>
       </c>
       <c r="C36">
-        <v>-0.02060385716961041</v>
+        <v>-0.007261547362590359</v>
       </c>
       <c r="D36">
-        <v>-0.01382129094620909</v>
+        <v>-0.03862389488175819</v>
       </c>
       <c r="E36">
-        <v>0.07437807877585999</v>
+        <v>0.01633004681384025</v>
       </c>
       <c r="F36">
-        <v>0.03550924081771704</v>
+        <v>-0.01432226124287166</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02795964366806919</v>
+        <v>-0.003332451345817825</v>
       </c>
       <c r="C38">
-        <v>-0.05745211612789805</v>
+        <v>-0.0006475957587054002</v>
       </c>
       <c r="D38">
-        <v>-0.0182699197720951</v>
+        <v>-0.003926353793975165</v>
       </c>
       <c r="E38">
-        <v>-0.1157164255063932</v>
+        <v>0.004661201040227523</v>
       </c>
       <c r="F38">
-        <v>0.05506534020206798</v>
+        <v>0.003758298489744279</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09392062130457109</v>
+        <v>-0.1126711307104583</v>
       </c>
       <c r="C39">
-        <v>-0.07130807511364347</v>
+        <v>-0.02018088145264181</v>
       </c>
       <c r="D39">
-        <v>0.1106367028215144</v>
+        <v>-0.1417973115603589</v>
       </c>
       <c r="E39">
-        <v>0.1166155701481629</v>
+        <v>0.04861049075182843</v>
       </c>
       <c r="F39">
-        <v>0.07246625475797933</v>
+        <v>-0.04150462654223925</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02874696913173765</v>
+        <v>-0.03752616144080303</v>
       </c>
       <c r="C40">
-        <v>-0.06455174697037348</v>
+        <v>-0.00797947613350088</v>
       </c>
       <c r="D40">
-        <v>-0.01915702053658189</v>
+        <v>-0.02367021016752647</v>
       </c>
       <c r="E40">
-        <v>0.08565499835430201</v>
+        <v>0.002506849907681623</v>
       </c>
       <c r="F40">
-        <v>-0.01360018911654886</v>
+        <v>0.0141871307488532</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03044068827909671</v>
+        <v>-0.02670973895133685</v>
       </c>
       <c r="C41">
-        <v>-0.0263156516557409</v>
+        <v>-0.006808306234747388</v>
       </c>
       <c r="D41">
-        <v>0.02667409880143901</v>
+        <v>-0.01049428928167862</v>
       </c>
       <c r="E41">
-        <v>-0.003186465095862347</v>
+        <v>0.01048280220954739</v>
       </c>
       <c r="F41">
-        <v>0.008505503822735521</v>
+        <v>0.01311023443180617</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04880023938396467</v>
+        <v>-0.043487597600489</v>
       </c>
       <c r="C43">
-        <v>-0.05424874075063525</v>
+        <v>-0.007372242838555251</v>
       </c>
       <c r="D43">
-        <v>-0.00713741430829627</v>
+        <v>-0.02083308975361298</v>
       </c>
       <c r="E43">
-        <v>0.01425990198067087</v>
+        <v>0.02562808994705362</v>
       </c>
       <c r="F43">
-        <v>0.01240768589202418</v>
+        <v>0.0112786439565618</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0964164833667137</v>
+        <v>-0.07432974400089362</v>
       </c>
       <c r="C44">
-        <v>-0.08157731163463861</v>
+        <v>-0.02465668684593772</v>
       </c>
       <c r="D44">
-        <v>-0.06100508018249558</v>
+        <v>-0.09207526636287183</v>
       </c>
       <c r="E44">
-        <v>0.1665684704734817</v>
+        <v>0.06489496936460351</v>
       </c>
       <c r="F44">
-        <v>0.03655674505358808</v>
+        <v>-0.1865545854359916</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04447901694486183</v>
+        <v>-0.02463733673649001</v>
       </c>
       <c r="C46">
-        <v>-0.04210503513811741</v>
+        <v>-0.004064463092755521</v>
       </c>
       <c r="D46">
-        <v>-0.04295266177418958</v>
+        <v>-0.009960371183230097</v>
       </c>
       <c r="E46">
-        <v>0.02558820241009444</v>
+        <v>0.02211726582946422</v>
       </c>
       <c r="F46">
-        <v>0.01535333546676199</v>
+        <v>0.003858158123670474</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05190564505496199</v>
+        <v>-0.053123879914233</v>
       </c>
       <c r="C47">
-        <v>-0.04767899589420883</v>
+        <v>-0.00338129459287761</v>
       </c>
       <c r="D47">
-        <v>-0.003324761285242591</v>
+        <v>-0.01465109011602046</v>
       </c>
       <c r="E47">
-        <v>0.01431038334818893</v>
+        <v>0.02274413875193754</v>
       </c>
       <c r="F47">
-        <v>0.03817765010368984</v>
+        <v>0.04710723891477819</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04542017569448145</v>
+        <v>-0.04803824845082013</v>
       </c>
       <c r="C48">
-        <v>-0.01438853310999791</v>
+        <v>-0.003417664701354939</v>
       </c>
       <c r="D48">
-        <v>0.007234905814539733</v>
+        <v>-0.0424745202755276</v>
       </c>
       <c r="E48">
-        <v>0.08572402942102575</v>
+        <v>-0.008806199928869517</v>
       </c>
       <c r="F48">
-        <v>0.02347174671350984</v>
+        <v>-0.02068036436790215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2357661965395184</v>
+        <v>-0.2086110403821506</v>
       </c>
       <c r="C49">
-        <v>-0.06068581958286165</v>
+        <v>-0.01729988816489874</v>
       </c>
       <c r="D49">
-        <v>0.03738574823446828</v>
+        <v>0.007167390968761078</v>
       </c>
       <c r="E49">
-        <v>-0.3073655072952195</v>
+        <v>0.04569621624656705</v>
       </c>
       <c r="F49">
-        <v>-0.05620334028009306</v>
+        <v>-0.03076026666753078</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03835513229247561</v>
+        <v>-0.04872084269256178</v>
       </c>
       <c r="C50">
-        <v>-0.04600575459484091</v>
+        <v>-0.01163053372677548</v>
       </c>
       <c r="D50">
-        <v>0.01317183271224612</v>
+        <v>-0.02808362187695805</v>
       </c>
       <c r="E50">
-        <v>0.05134010418111341</v>
+        <v>0.02951137077332607</v>
       </c>
       <c r="F50">
-        <v>0.05591091632839065</v>
+        <v>-0.005794317897333348</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03329493029778062</v>
+        <v>-0.003709519520830693</v>
       </c>
       <c r="C51">
-        <v>-0.003608417368316844</v>
+        <v>-0.0008543654112063135</v>
       </c>
       <c r="D51">
-        <v>-0.0004475254923528353</v>
+        <v>0.001453588015492546</v>
       </c>
       <c r="E51">
-        <v>-0.0540746242274638</v>
+        <v>0.001807971595043341</v>
       </c>
       <c r="F51">
-        <v>-0.05823549212075798</v>
+        <v>-0.00392066515420729</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.009759736830268241</v>
+        <v>-0.1399896862641051</v>
       </c>
       <c r="C52">
-        <v>-0.006474474915686084</v>
+        <v>-0.01222494194334182</v>
       </c>
       <c r="D52">
-        <v>0.02214884123310033</v>
+        <v>-0.05416445193412651</v>
       </c>
       <c r="E52">
-        <v>0.01499648229474561</v>
+        <v>0.01254424243148729</v>
       </c>
       <c r="F52">
-        <v>-0.0262380200592515</v>
+        <v>-0.02786497414504956</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1448386442351791</v>
+        <v>-0.1718451994659561</v>
       </c>
       <c r="C53">
-        <v>-0.06058353911687836</v>
+        <v>-0.01496820896172218</v>
       </c>
       <c r="D53">
-        <v>-0.008109780460989908</v>
+        <v>-0.02191659815847655</v>
       </c>
       <c r="E53">
-        <v>-0.09016393298520084</v>
+        <v>0.03724273176370353</v>
       </c>
       <c r="F53">
-        <v>0.02096652682661065</v>
+        <v>-0.05422866187920531</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0591212544307697</v>
+        <v>-0.02206725681097563</v>
       </c>
       <c r="C54">
-        <v>-0.03210472207896994</v>
+        <v>-0.01296726159572238</v>
       </c>
       <c r="D54">
-        <v>-0.008498290807332325</v>
+        <v>-0.02809222851468854</v>
       </c>
       <c r="E54">
-        <v>0.1453943956933622</v>
+        <v>0.01367854487589294</v>
       </c>
       <c r="F54">
-        <v>0.02000477632483451</v>
+        <v>-0.002526036067344314</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0818318842160005</v>
+        <v>-0.1139050095859287</v>
       </c>
       <c r="C55">
-        <v>-0.05059952876957138</v>
+        <v>-0.01426955524060593</v>
       </c>
       <c r="D55">
-        <v>0.03041530321673201</v>
+        <v>-0.01948767809473789</v>
       </c>
       <c r="E55">
-        <v>-0.01565072326059103</v>
+        <v>0.02852855541151061</v>
       </c>
       <c r="F55">
-        <v>0.0005503488761766751</v>
+        <v>-0.04623615677148288</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1326422340903362</v>
+        <v>-0.1764024082162728</v>
       </c>
       <c r="C56">
-        <v>-0.089310767001107</v>
+        <v>-0.01223346380901904</v>
       </c>
       <c r="D56">
-        <v>0.01180012385811577</v>
+        <v>-0.02126551909811839</v>
       </c>
       <c r="E56">
-        <v>-0.04022980322883721</v>
+        <v>0.04114322777953166</v>
       </c>
       <c r="F56">
-        <v>0.02821290761748134</v>
+        <v>-0.0231425367324758</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03272721290249092</v>
+        <v>-0.04700859059622192</v>
       </c>
       <c r="C58">
-        <v>-0.02957022082593852</v>
+        <v>-0.003961906493645685</v>
       </c>
       <c r="D58">
-        <v>-0.03669083609069904</v>
+        <v>-0.0577846441568168</v>
       </c>
       <c r="E58">
-        <v>0.03685880753202993</v>
+        <v>0.01178815290629627</v>
       </c>
       <c r="F58">
-        <v>0.01233752079823986</v>
+        <v>0.04270207924512178</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2121897465349354</v>
+        <v>-0.1713273071059577</v>
       </c>
       <c r="C59">
-        <v>0.2442575338711093</v>
+        <v>-0.01185461934538882</v>
       </c>
       <c r="D59">
-        <v>0.0440404226566863</v>
+        <v>0.2346111913324313</v>
       </c>
       <c r="E59">
-        <v>-0.003271247697982367</v>
+        <v>-0.04573556389135962</v>
       </c>
       <c r="F59">
-        <v>-0.08137861187151678</v>
+        <v>0.02919559182046547</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2357195262413939</v>
+        <v>-0.2393476033013907</v>
       </c>
       <c r="C60">
-        <v>-0.1338729461301194</v>
+        <v>0.004542479178113006</v>
       </c>
       <c r="D60">
-        <v>0.06981483023560041</v>
+        <v>-0.05512831781018067</v>
       </c>
       <c r="E60">
-        <v>-0.1424863407354683</v>
+        <v>0.01305788439344512</v>
       </c>
       <c r="F60">
-        <v>-0.02181432962508489</v>
+        <v>0.0528159485876846</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09379899461040038</v>
+        <v>-0.08673625244560527</v>
       </c>
       <c r="C61">
-        <v>-0.06337349336980477</v>
+        <v>-0.01536183198886978</v>
       </c>
       <c r="D61">
-        <v>0.06800202782000599</v>
+        <v>-0.102071508455357</v>
       </c>
       <c r="E61">
-        <v>0.1188071867915693</v>
+        <v>0.03325323112310677</v>
       </c>
       <c r="F61">
-        <v>0.03787467386999668</v>
+        <v>-0.02721422630355638</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1337307640396793</v>
+        <v>-0.168166156428428</v>
       </c>
       <c r="C62">
-        <v>-0.08051552855724427</v>
+        <v>-0.01615583882873412</v>
       </c>
       <c r="D62">
-        <v>0.005425655820120255</v>
+        <v>-0.02080084505052819</v>
       </c>
       <c r="E62">
-        <v>-0.04810532239259492</v>
+        <v>0.03635303233445412</v>
       </c>
       <c r="F62">
-        <v>0.07711184991675478</v>
+        <v>-0.01086280134730305</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04321670486695824</v>
+        <v>-0.04298550072461658</v>
       </c>
       <c r="C63">
-        <v>-0.01925238244504728</v>
+        <v>-0.004631203091694442</v>
       </c>
       <c r="D63">
-        <v>0.006443417786760463</v>
+        <v>-0.04447616669403191</v>
       </c>
       <c r="E63">
-        <v>0.06099187644612434</v>
+        <v>0.01352950981798109</v>
       </c>
       <c r="F63">
-        <v>0.04567855952506356</v>
+        <v>-0.01415378586978687</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09883990921349312</v>
+        <v>-0.1121157855249203</v>
       </c>
       <c r="C64">
-        <v>-0.05935116658359423</v>
+        <v>-0.01213008761465646</v>
       </c>
       <c r="D64">
-        <v>0.00420928050911522</v>
+        <v>-0.03903710961171085</v>
       </c>
       <c r="E64">
-        <v>0.04891961215926418</v>
+        <v>0.01925311900035824</v>
       </c>
       <c r="F64">
-        <v>0.014569057431563</v>
+        <v>-0.01637642063666505</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1177996378320481</v>
+        <v>-0.1417104199176213</v>
       </c>
       <c r="C65">
-        <v>-0.03170048348519106</v>
+        <v>-0.03046895621494332</v>
       </c>
       <c r="D65">
-        <v>0.02368652504957493</v>
+        <v>0.0444282492262215</v>
       </c>
       <c r="E65">
-        <v>0.06104630224508115</v>
+        <v>0.003262233831903852</v>
       </c>
       <c r="F65">
-        <v>0.0760381715200442</v>
+        <v>-0.03969470939234163</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1095381536008353</v>
+        <v>-0.1351406805239186</v>
       </c>
       <c r="C66">
-        <v>-0.1078192709768949</v>
+        <v>-0.01775715632441001</v>
       </c>
       <c r="D66">
-        <v>0.1118445146983194</v>
+        <v>-0.1291025925466436</v>
       </c>
       <c r="E66">
-        <v>0.0942255169079156</v>
+        <v>0.05960680854193375</v>
       </c>
       <c r="F66">
-        <v>0.09773927634877841</v>
+        <v>-0.04516957188213016</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.08490815841035119</v>
+        <v>-0.06610252728946686</v>
       </c>
       <c r="C67">
-        <v>-0.07663221561826648</v>
+        <v>-0.004413319941056695</v>
       </c>
       <c r="D67">
-        <v>-0.02436842878352921</v>
+        <v>-0.05649422383927172</v>
       </c>
       <c r="E67">
-        <v>-0.09149763790044897</v>
+        <v>0.0191542881917361</v>
       </c>
       <c r="F67">
-        <v>0.02185647897751534</v>
+        <v>0.04429866794217022</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1275021397750003</v>
+        <v>-0.1107213646686891</v>
       </c>
       <c r="C68">
-        <v>0.2724982866245672</v>
+        <v>-0.02084257679899811</v>
       </c>
       <c r="D68">
-        <v>0.02055091574366232</v>
+        <v>0.275752476127299</v>
       </c>
       <c r="E68">
-        <v>0.02949517810979325</v>
+        <v>-0.08259185813540343</v>
       </c>
       <c r="F68">
-        <v>0.03030546503286373</v>
+        <v>-0.05272273347606193</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04294764565791256</v>
+        <v>-0.04089730428666264</v>
       </c>
       <c r="C69">
-        <v>-0.01806033177751594</v>
+        <v>-0.001077809976476968</v>
       </c>
       <c r="D69">
-        <v>-0.0133326407120551</v>
+        <v>-0.00932114830049909</v>
       </c>
       <c r="E69">
-        <v>-0.01760407781442553</v>
+        <v>0.02519943046995304</v>
       </c>
       <c r="F69">
-        <v>0.0555739594427608</v>
+        <v>0.01728956020772502</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06628329035046975</v>
+        <v>-0.06565814082271149</v>
       </c>
       <c r="C70">
-        <v>-0.06489530570177061</v>
+        <v>0.0269656725227694</v>
       </c>
       <c r="D70">
-        <v>0.06178556905280098</v>
+        <v>-0.003574335133497899</v>
       </c>
       <c r="E70">
-        <v>-0.02185040347571396</v>
+        <v>-0.04603122136647811</v>
       </c>
       <c r="F70">
-        <v>0.04302779168159564</v>
+        <v>0.3437221311900997</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1434156817020506</v>
+        <v>-0.1295826039210515</v>
       </c>
       <c r="C71">
-        <v>0.2783688416491515</v>
+        <v>-0.02414348371239703</v>
       </c>
       <c r="D71">
-        <v>0.0105384787108374</v>
+        <v>0.2912009768152907</v>
       </c>
       <c r="E71">
-        <v>0.04204245423445942</v>
+        <v>-0.09180660428439034</v>
       </c>
       <c r="F71">
-        <v>0.02541223466311462</v>
+        <v>-0.05482888967527329</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1265270769260581</v>
+        <v>-0.1383626449069959</v>
       </c>
       <c r="C72">
-        <v>-0.02832305503222228</v>
+        <v>-0.02396189970222973</v>
       </c>
       <c r="D72">
-        <v>0.01085020127412594</v>
+        <v>-0.01168819385848004</v>
       </c>
       <c r="E72">
-        <v>0.01523860133970875</v>
+        <v>0.04309337177802343</v>
       </c>
       <c r="F72">
-        <v>0.07527988934741998</v>
+        <v>-0.0253373728640265</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2160585231558413</v>
+        <v>-0.2107879032595222</v>
       </c>
       <c r="C73">
-        <v>-0.1313467418222142</v>
+        <v>-0.01179312851249405</v>
       </c>
       <c r="D73">
-        <v>0.126869376278516</v>
+        <v>-0.02614707762880715</v>
       </c>
       <c r="E73">
-        <v>-0.4652949237533358</v>
+        <v>0.07312768224007937</v>
       </c>
       <c r="F73">
-        <v>-0.1486956804274491</v>
+        <v>-0.01839079036700755</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08221885880360914</v>
+        <v>-0.09379832383967918</v>
       </c>
       <c r="C74">
-        <v>-0.08627216486988896</v>
+        <v>-0.01154885424705899</v>
       </c>
       <c r="D74">
-        <v>0.002006785824022634</v>
+        <v>-0.03032599241786738</v>
       </c>
       <c r="E74">
-        <v>-0.05003772901066174</v>
+        <v>0.05114035917638745</v>
       </c>
       <c r="F74">
-        <v>0.04670592915772171</v>
+        <v>-0.03897868664948335</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08548679776419846</v>
+        <v>-0.1293527209053889</v>
       </c>
       <c r="C75">
-        <v>-0.06212075056109272</v>
+        <v>-0.02560971279724112</v>
       </c>
       <c r="D75">
-        <v>0.003116592696961277</v>
+        <v>-0.04121327159320453</v>
       </c>
       <c r="E75">
-        <v>-0.01617140521469236</v>
+        <v>0.05797677694183929</v>
       </c>
       <c r="F75">
-        <v>0.01496138610985684</v>
+        <v>-0.003755565362711226</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08263221384585286</v>
+        <v>-0.009550016367086106</v>
       </c>
       <c r="C76">
-        <v>-0.08170358153356312</v>
+        <v>-0.002125234718988944</v>
       </c>
       <c r="D76">
-        <v>-0.003762603511769407</v>
+        <v>-0.004635139876088348</v>
       </c>
       <c r="E76">
-        <v>-0.05638979652722764</v>
+        <v>0.009975562419830657</v>
       </c>
       <c r="F76">
-        <v>-0.01507346905195686</v>
+        <v>-0.003499962428504876</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06850500224896487</v>
+        <v>-0.08142042705888779</v>
       </c>
       <c r="C77">
-        <v>-0.01616561410681835</v>
+        <v>-0.01251827615914985</v>
       </c>
       <c r="D77">
-        <v>0.04393714362085324</v>
+        <v>-0.09685983208909953</v>
       </c>
       <c r="E77">
-        <v>0.2943048457329732</v>
+        <v>0.03205902890451993</v>
       </c>
       <c r="F77">
-        <v>-0.05387143160239827</v>
+        <v>-0.04453728006377022</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.2016965800020822</v>
+        <v>-0.1118328624972208</v>
       </c>
       <c r="C78">
-        <v>-0.131221113887017</v>
+        <v>-0.04474351129760942</v>
       </c>
       <c r="D78">
-        <v>-0.1702941675808663</v>
+        <v>-0.1163387665869479</v>
       </c>
       <c r="E78">
-        <v>0.2860440149294776</v>
+        <v>0.08792644704660005</v>
       </c>
       <c r="F78">
-        <v>-0.682717733721231</v>
+        <v>-0.0807050801577401</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1275600383109682</v>
+        <v>-0.1621154364323641</v>
       </c>
       <c r="C79">
-        <v>-0.07756709468155477</v>
+        <v>-0.01964915643669096</v>
       </c>
       <c r="D79">
-        <v>-0.01169320520997626</v>
+        <v>-0.02540673595194668</v>
       </c>
       <c r="E79">
-        <v>-0.01216168577801303</v>
+        <v>0.04723369776299365</v>
       </c>
       <c r="F79">
-        <v>0.04703214070611703</v>
+        <v>-0.002978607026001717</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07261466561758273</v>
+        <v>-0.08094693899892925</v>
       </c>
       <c r="C80">
-        <v>-0.04334865893791329</v>
+        <v>0.00135082340682343</v>
       </c>
       <c r="D80">
-        <v>0.09182704695790433</v>
+        <v>-0.05194832015757082</v>
       </c>
       <c r="E80">
-        <v>-0.02401099750897081</v>
+        <v>0.02505123775891152</v>
       </c>
       <c r="F80">
-        <v>0.02316310226220816</v>
+        <v>0.0112832673979652</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1202746483962252</v>
+        <v>-0.1215337091180045</v>
       </c>
       <c r="C81">
-        <v>-0.04987948898884347</v>
+        <v>-0.02936214582071337</v>
       </c>
       <c r="D81">
-        <v>-0.01341061153191045</v>
+        <v>-0.03176685236357943</v>
       </c>
       <c r="E81">
-        <v>0.03006634662366931</v>
+        <v>0.05891026786405398</v>
       </c>
       <c r="F81">
-        <v>0.0921813479044168</v>
+        <v>0.007231318064985849</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1172367514777727</v>
+        <v>-0.1618884496661071</v>
       </c>
       <c r="C82">
-        <v>-0.05803210332329083</v>
+        <v>-0.0201090928874651</v>
       </c>
       <c r="D82">
-        <v>0.001331060673524679</v>
+        <v>-0.02418389265339925</v>
       </c>
       <c r="E82">
-        <v>-0.03698700271951935</v>
+        <v>0.03446840272397787</v>
       </c>
       <c r="F82">
-        <v>0.07512647698539454</v>
+        <v>-0.0480629522108456</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08478213018978624</v>
+        <v>-0.06669817267219727</v>
       </c>
       <c r="C83">
-        <v>-0.08144394109493605</v>
+        <v>-0.004543628745913659</v>
       </c>
       <c r="D83">
-        <v>0.008232540486339205</v>
+        <v>-0.04612749518478872</v>
       </c>
       <c r="E83">
-        <v>-0.01608397411433325</v>
+        <v>0.003275907491675105</v>
       </c>
       <c r="F83">
-        <v>0.08464649527730884</v>
+        <v>0.02788827069347909</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03658476427592317</v>
+        <v>-0.06063911355726714</v>
       </c>
       <c r="C84">
-        <v>0.05664442214982399</v>
+        <v>-0.01199432336778184</v>
       </c>
       <c r="D84">
-        <v>0.03645574506286524</v>
+        <v>-0.05764896400585946</v>
       </c>
       <c r="E84">
-        <v>0.1189022133785064</v>
+        <v>-0.004275730828327928</v>
       </c>
       <c r="F84">
-        <v>-0.1202790306735884</v>
+        <v>-0.01431918103817693</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1183775606384274</v>
+        <v>-0.137174275021687</v>
       </c>
       <c r="C85">
-        <v>-0.05611364335934631</v>
+        <v>-0.02501718223195373</v>
       </c>
       <c r="D85">
-        <v>0.008251105857939109</v>
+        <v>-0.02419567932556145</v>
       </c>
       <c r="E85">
-        <v>-0.03073684925115781</v>
+        <v>0.04017789859477584</v>
       </c>
       <c r="F85">
-        <v>0.0579298110569676</v>
+        <v>-0.03803267062095151</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08652723353300568</v>
+        <v>-0.1000707818979932</v>
       </c>
       <c r="C86">
-        <v>-0.01286179364970786</v>
+        <v>0.006539092716790477</v>
       </c>
       <c r="D86">
-        <v>-0.02234905070853644</v>
+        <v>-0.008885632979931854</v>
       </c>
       <c r="E86">
-        <v>0.04860634217774839</v>
+        <v>0.1265010846988966</v>
       </c>
       <c r="F86">
-        <v>-0.1487017327165254</v>
+        <v>0.8240280703970775</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1192319786652639</v>
+        <v>-0.1026912796076376</v>
       </c>
       <c r="C87">
-        <v>-0.0653173454912401</v>
+        <v>-0.02600036324639003</v>
       </c>
       <c r="D87">
-        <v>-0.01342015013717116</v>
+        <v>-0.0678808840083276</v>
       </c>
       <c r="E87">
-        <v>0.07079910110783302</v>
+        <v>-0.05323091193517524</v>
       </c>
       <c r="F87">
-        <v>0.02093307771939162</v>
+        <v>-0.09404572344805326</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06128442739408842</v>
+        <v>-0.06062402702812417</v>
       </c>
       <c r="C88">
-        <v>-0.06314128699769531</v>
+        <v>-0.003755926740513614</v>
       </c>
       <c r="D88">
-        <v>0.03655278926522734</v>
+        <v>-0.05785092256953164</v>
       </c>
       <c r="E88">
-        <v>0.009331442733898377</v>
+        <v>0.02379110580658638</v>
       </c>
       <c r="F88">
-        <v>0.02086072323768765</v>
+        <v>-0.007730634673283853</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2333748701092856</v>
+        <v>-0.131848647372268</v>
       </c>
       <c r="C89">
-        <v>0.3692982889501555</v>
+        <v>-0.003614651687122506</v>
       </c>
       <c r="D89">
-        <v>-0.04360167941472141</v>
+        <v>0.2802707822656371</v>
       </c>
       <c r="E89">
-        <v>-0.01213625441219564</v>
+        <v>-0.08911372985665024</v>
       </c>
       <c r="F89">
-        <v>-0.03564707471379738</v>
+        <v>-0.03830792750921139</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1542197113559375</v>
+        <v>-0.1404895118016179</v>
       </c>
       <c r="C90">
-        <v>0.258227017373067</v>
+        <v>-0.02028518796435764</v>
       </c>
       <c r="D90">
-        <v>0.01415188387499746</v>
+        <v>0.2771489525560273</v>
       </c>
       <c r="E90">
-        <v>0.006519124059804596</v>
+        <v>-0.1038418432612205</v>
       </c>
       <c r="F90">
-        <v>-0.008933604688302923</v>
+        <v>-0.04308649919710018</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07000323679496977</v>
+        <v>-0.1160745119378258</v>
       </c>
       <c r="C91">
-        <v>-0.05779600192314963</v>
+        <v>-0.01567021289072427</v>
       </c>
       <c r="D91">
-        <v>-0.01303158034176403</v>
+        <v>-0.006101099674246148</v>
       </c>
       <c r="E91">
-        <v>-0.001604284732768916</v>
+        <v>0.0581492602904029</v>
       </c>
       <c r="F91">
-        <v>-0.01135607380103358</v>
+        <v>0.03285235267824647</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1720506917071891</v>
+        <v>-0.1444814862735619</v>
       </c>
       <c r="C92">
-        <v>0.2989403311872329</v>
+        <v>-0.01108109343196043</v>
       </c>
       <c r="D92">
-        <v>-0.02298044168616997</v>
+        <v>0.3133408095405394</v>
       </c>
       <c r="E92">
-        <v>0.03232131463441126</v>
+        <v>-0.09932471061152709</v>
       </c>
       <c r="F92">
-        <v>-0.03642833796274016</v>
+        <v>-0.03500512186571117</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1712072562552672</v>
+        <v>-0.1457517731207379</v>
       </c>
       <c r="C93">
-        <v>0.3073321157412332</v>
+        <v>-0.01641275643269051</v>
       </c>
       <c r="D93">
-        <v>0.04447187860226148</v>
+        <v>0.2810366255090141</v>
       </c>
       <c r="E93">
-        <v>0.008727780193191129</v>
+        <v>-0.06992237852815539</v>
       </c>
       <c r="F93">
-        <v>0.0419980503350918</v>
+        <v>-0.0320896222324652</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.11169607025676</v>
+        <v>-0.1330812384870955</v>
       </c>
       <c r="C94">
-        <v>-0.07915550270123116</v>
+        <v>-0.02333589056130292</v>
       </c>
       <c r="D94">
-        <v>-0.01212055273700405</v>
+        <v>-0.05374398404952458</v>
       </c>
       <c r="E94">
-        <v>-0.0475625894316181</v>
+        <v>0.06132230357158815</v>
       </c>
       <c r="F94">
-        <v>0.002108014741753376</v>
+        <v>-0.02258014641785096</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1512063826250188</v>
+        <v>-0.1273826126217552</v>
       </c>
       <c r="C95">
-        <v>-0.05748282164523504</v>
+        <v>-0.006681912638257653</v>
       </c>
       <c r="D95">
-        <v>-0.01203896376399727</v>
+        <v>-0.08589944640687458</v>
       </c>
       <c r="E95">
-        <v>0.03453151560352625</v>
+        <v>0.0411977329685974</v>
       </c>
       <c r="F95">
-        <v>-0.01370846292270149</v>
+        <v>0.009680027573560478</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09419145507987653</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9895005677567705</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01071810792011725</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06027440393094122</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05079856338305237</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1128424617593674</v>
+        <v>-0.1865141990797226</v>
       </c>
       <c r="C97">
-        <v>0.01714888753401773</v>
+        <v>0.01330479736599884</v>
       </c>
       <c r="D97">
-        <v>-0.0335757583202109</v>
+        <v>0.007129108722686859</v>
       </c>
       <c r="E97">
-        <v>0.06906776441601091</v>
+        <v>0.01285950593116986</v>
       </c>
       <c r="F97">
-        <v>0.5382410159436372</v>
+        <v>0.1706871972910329</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.257542805607078</v>
+        <v>-0.207907111718607</v>
       </c>
       <c r="C98">
-        <v>-0.1263867167322153</v>
+        <v>-0.007580739810492472</v>
       </c>
       <c r="D98">
-        <v>-0.05004971967739582</v>
+        <v>-0.01569586503561521</v>
       </c>
       <c r="E98">
-        <v>-0.2687187963336964</v>
+        <v>-0.08597079641558233</v>
       </c>
       <c r="F98">
-        <v>-0.05610843210049735</v>
+        <v>0.1445605456747135</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07433783667953166</v>
+        <v>-0.05833754884459769</v>
       </c>
       <c r="C99">
-        <v>-0.05651960976909642</v>
+        <v>0.003039910971802598</v>
       </c>
       <c r="D99">
-        <v>-0.01771010936480191</v>
+        <v>-0.03047563424562651</v>
       </c>
       <c r="E99">
-        <v>-0.037953495534448</v>
+        <v>0.02289727973567857</v>
       </c>
       <c r="F99">
-        <v>-0.0262341078935363</v>
+        <v>-0.005645438654681198</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1226585573947607</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04674408879946277</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.321241361596951</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9082774838350196</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05503215656073192</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04289727404022729</v>
+        <v>-0.0275443224266715</v>
       </c>
       <c r="C101">
-        <v>-0.029210003138048</v>
+        <v>-0.009352686749032585</v>
       </c>
       <c r="D101">
-        <v>0.01435890328300933</v>
+        <v>-0.02505316282995479</v>
       </c>
       <c r="E101">
-        <v>0.05250320661846112</v>
+        <v>0.008088668019167159</v>
       </c>
       <c r="F101">
-        <v>0.01937069243801034</v>
+        <v>0.008286023973739573</v>
       </c>
     </row>
     <row r="102" spans="1:6">
